--- a/ImOnAVote포트폴리오/03. 설계/03_02. 클래스 정의서.xlsx
+++ b/ImOnAVote포트폴리오/03. 설계/03_02. 클래스 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\포트폴리오 관련\03. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07EFCC-0F93-41B3-A878-0B41C75D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7BB400-62F3-4D64-A8FC-F70388581CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>클래스 정의서</t>
   </si>
@@ -124,546 +124,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>com.application.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ioav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.member.controller</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.ioav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.member.dto</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.application.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ioav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.member.service</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.ioav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.member.dao</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.application.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ioav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.dto</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.application.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ioav.survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.controller</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.ioav.survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.service</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.ioav.survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.dao</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>DTO</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Controller</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록 전체조회</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 상세조회</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록 조회(검색키워드 사용)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>DAO</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Service</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberDAO</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MemberService</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>urvey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>List</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>urvey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Detail</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>urveySearch</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>List</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Survey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Detail</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>getS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>urveySearch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>List</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -695,107 +160,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중복</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>login/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>logout</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그아웃</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>login/logout</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -860,35 +228,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명의중복확인</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>updateMember</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -897,38 +236,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멤버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>register</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -985,54 +292,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>getReadCnt</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1054,6 +313,94 @@
   </si>
   <si>
     <t>SearchDAO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.member.dto</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.member.controller</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.member.service</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 명의중복확인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.member.dao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.survey.dto</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SurveyDTO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.survey.controller</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SurveyController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveyList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문목록 전체조회</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveyDetail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 상세조회</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveySearch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문목록 조회(검색키워드 사용)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.survey.service</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SurveyService</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSurveyList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSurveyDetail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSurveySearchList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.application.ioav.survey.dao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SurveyDAO</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,65 +467,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="굴림"/>
-      <family val="3"/>
+      <name val="휴먼명조"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <name val="휴먼명조"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="굴림"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1477,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1487,122 +782,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,25 +800,103 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1857,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H29"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1876,48 +1135,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="2" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="27.75" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="28.5" customHeight="1">
@@ -1936,542 +1195,542 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B7" s="33">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="30"/>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="30"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="20" t="s">
-        <v>78</v>
+        <v>51</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="22" t="s">
-        <v>80</v>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="8" t="s">
-        <v>56</v>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9" t="s">
-        <v>58</v>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="9" t="s">
-        <v>60</v>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="21" customHeight="1">
-      <c r="B16" s="38">
+      <c r="B16" s="30">
         <v>3</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>40</v>
+      <c r="D16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="35"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="30"/>
+        <v>39</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="40"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="13" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B22" s="38">
+      <c r="B22" s="30">
         <v>4</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="D22" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="52"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B26" s="33">
+      <c r="B26" s="13">
         <v>6</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="30"/>
+      <c r="D26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="30"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B29" s="33">
+      <c r="B29" s="13">
         <v>7</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="30"/>
+      <c r="D29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="30"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="30"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="17"/>
       <c r="H32" s="18" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="20" t="s">
-        <v>84</v>
+        <v>57</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="22" t="s">
-        <v>86</v>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B35" s="33">
+      <c r="B35" s="13">
         <v>8</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="D35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="30"/>
+      <c r="G35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="4" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="30"/>
+      <c r="G36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="6" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="32"/>
+      <c r="G37" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="26" t="s">
-        <v>89</v>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="27" t="s">
-        <v>82</v>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="28" t="s">
-        <v>91</v>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B41" s="53">
+      <c r="B41" s="38">
         <v>9</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
+      <c r="C41" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="43" spans="2:8" ht="16.5" customHeight="1"/>
@@ -3446,6 +2705,62 @@
     <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B32:B34"/>
@@ -3458,62 +2773,6 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
